--- a/data/interim/economical/conversion_matrices.xlsx
+++ b/data/interim/economical/conversion_matrices.xlsx
@@ -10,7 +10,7 @@
     <sheet name="NACE 21 to NACE 10" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="NACE 38 to NACE 21" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="NACE 64 to NACE 38" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="WIOD 55 to NACE 64" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NACE 64 to WIOD 55" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
